--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46176.55384038104</v>
+        <v>9080593.592928478</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46176.55384038104</v>
+        <v>9080593.592928478</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>188462.6696288124</v>
+        <v>20497812.56655973</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188462.6696288124</v>
+        <v>20497812.56655973</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1606467532.708818</v>
+        <v>37681826.60373633</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18897.36698873668</v>
+        <v>831603.6257711288</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36625.24864054714</v>
+        <v>1507745.33538496</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>54479.62875840602</v>
+        <v>2183887.04499879</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72316.03015582154</v>
+        <v>2857841.022384554</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>90128.5594732902</v>
+        <v>3533428.296988669</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>107946.9096037897</v>
+        <v>4214348.923395612</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125028.0593245495</v>
+        <v>5360976.12679379</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>141668.2684392488</v>
+        <v>6419856.149585906</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>158781.7519569334</v>
+        <v>7176312.63256958</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>176180.9599190624</v>
+        <v>7989628.27999769</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>193580.1678811914</v>
+        <v>8802943.927425798</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>210979.3758433204</v>
+        <v>9616259.574853903</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>228378.5838054493</v>
+        <v>10429575.22228201</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>247109.3388522886</v>
+        <v>11068335.7646582</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>265205.0345873979</v>
+        <v>11304915.78440069</v>
       </c>
     </row>
   </sheetData>
